--- a/test-output/Output Files/StatusReport.xlsx
+++ b/test-output/Output Files/StatusReport.xlsx
@@ -14,10 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>TC_41</t>
+    <t>TC_22</t>
   </si>
   <si>
-    <t>SearchByBrand</t>
+    <t>Usedcarschn</t>
   </si>
   <si>
     <t>PASS</t>

--- a/test-output/Output Files/StatusReport.xlsx
+++ b/test-output/Output Files/StatusReport.xlsx
@@ -14,10 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>TC_22</t>
+    <t>TC_15</t>
   </si>
   <si>
-    <t>Usedcarschn</t>
+    <t>UpcomingRequirement</t>
   </si>
   <si>
     <t>PASS</t>

--- a/test-output/Output Files/StatusReport.xlsx
+++ b/test-output/Output Files/StatusReport.xlsx
@@ -14,10 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>TC_15</t>
+    <t>TC_13</t>
   </si>
   <si>
-    <t>UpcomingRequirement</t>
+    <t>Check</t>
   </si>
   <si>
     <t>PASS</t>

--- a/test-output/Output Files/StatusReport.xlsx
+++ b/test-output/Output Files/StatusReport.xlsx
@@ -14,13 +14,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>TC_13</t>
+    <t>TC_21</t>
   </si>
   <si>
-    <t>Check</t>
+    <t>SearchusedCars</t>
   </si>
   <si>
-    <t>PASS</t>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>

--- a/test-output/Output Files/StatusReport.xlsx
+++ b/test-output/Output Files/StatusReport.xlsx
@@ -14,13 +14,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>TC_21</t>
+    <t>TC_12</t>
   </si>
   <si>
-    <t>SearchusedCars</t>
+    <t>Price</t>
   </si>
   <si>
-    <t>FAIL</t>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
